--- a/Kt1/Checklist kerntaak 1.xlsx
+++ b/Kt1/Checklist kerntaak 1.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BakeIfy\Documentation\Kerntaak 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -107,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +287,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -350,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,27 +545,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="83.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -591,14 +574,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -610,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -622,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -634,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -646,14 +629,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -665,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -673,18 +656,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -696,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -708,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -720,14 +700,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -735,11 +715,8 @@
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -747,11 +724,8 @@
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -759,11 +733,8 @@
         <v>16</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -771,11 +742,8 @@
         <v>17</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -783,18 +751,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -802,11 +767,8 @@
         <v>20</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -814,11 +776,8 @@
         <v>21</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -826,11 +785,8 @@
         <v>22</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -838,14 +794,11 @@
         <v>23</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5">
       <c r="D25">
         <f>SUM(D3:D24)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
